--- a/data/refundsBak.xlsx
+++ b/data/refundsBak.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\github\refundBot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BAD6CC5-C25C-47FF-B31E-014F4F1B5A98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280ECC30-6883-461E-9E8A-94AE6274D072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="630" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tickets" sheetId="3" r:id="rId1"/>
+    <sheet name="Tickets" sheetId="4" r:id="rId1"/>
     <sheet name="Processing Status" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -32,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
-  <si>
-    <t>YourTicketNumber</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Customer Address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Payment Type</t>
   </si>
@@ -73,15 +64,6 @@
     <t>Attempts</t>
   </si>
   <si>
-    <t>E3A98987</t>
-  </si>
-  <si>
-    <t>John Higgins</t>
-  </si>
-  <si>
-    <t>44 Benchmark Place, Reading, RG30 3HT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Card                </t>
   </si>
   <si>
@@ -91,25 +73,16 @@
     <t>Covid</t>
   </si>
   <si>
-    <t>E3A98988</t>
-  </si>
-  <si>
-    <t>Mary Quantum</t>
-  </si>
-  <si>
-    <t>23 Acacia Av, Bath, BA13 3HS</t>
+    <t>john.h.higgins56@hotmail.com</t>
   </si>
   <si>
     <t>Newcastle</t>
   </si>
   <si>
-    <t>E3B00190</t>
-  </si>
-  <si>
-    <t>Jed Grissom</t>
-  </si>
-  <si>
-    <t>12 Conucopia Way, Bristol BR1 6GH</t>
+    <t>Lost ticket</t>
+  </si>
+  <si>
+    <t>mary.quantum34@gmail.com</t>
   </si>
   <si>
     <t>Carlisle</t>
@@ -118,15 +91,6 @@
     <t>Jederby.Grissom55@btinternet.com</t>
   </si>
   <si>
-    <t>E3B00195</t>
-  </si>
-  <si>
-    <t>Neil Hardy</t>
-  </si>
-  <si>
-    <t>68 Freemason Drive, London, SW12 7EW</t>
-  </si>
-  <si>
     <t>Victoria</t>
   </si>
   <si>
@@ -136,15 +100,6 @@
     <t>Neli.hardy@gmail.com</t>
   </si>
   <si>
-    <t>E3B00293</t>
-  </si>
-  <si>
-    <t>Jim Davies</t>
-  </si>
-  <si>
-    <t>12 Chalkpit Close, Southampton, SO2 6HP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cash               </t>
   </si>
   <si>
@@ -154,78 +109,39 @@
     <t>Jimbo.Davies45@hotmail.com</t>
   </si>
   <si>
-    <t>E3B00362</t>
-  </si>
-  <si>
-    <t>Tom Cotton</t>
-  </si>
-  <si>
-    <t>92 Greenacre Avenue, Newcastle, NE2 5TH</t>
-  </si>
-  <si>
     <t>Newbury</t>
   </si>
   <si>
+    <t>Gastroenteritis</t>
+  </si>
+  <si>
     <t>Tommy567567@gmail.com</t>
   </si>
   <si>
-    <t>X123456</t>
-  </si>
-  <si>
-    <t>Sidney Barrett</t>
-  </si>
-  <si>
-    <t>23 Keep Drive, Aberdeen, AB45 7GB</t>
-  </si>
-  <si>
     <t>Doncaster</t>
   </si>
   <si>
     <t>Sid.Barret45@hotmail.com</t>
   </si>
   <si>
-    <t>P3B48847</t>
-  </si>
-  <si>
-    <t>Kate Crumble</t>
-  </si>
-  <si>
-    <t>28 Beekeeper Road, Taunton, TA2 6HP</t>
-  </si>
-  <si>
     <t>Bournemouth</t>
   </si>
   <si>
+    <t>Flu</t>
+  </si>
+  <si>
     <t>KateyCrumble@talk21.com</t>
   </si>
   <si>
-    <t>P3B48848</t>
-  </si>
-  <si>
-    <t>Judy Bench</t>
-  </si>
-  <si>
-    <t>15 Agent Street, Hounslow, HS34 34Y</t>
-  </si>
-  <si>
     <t>Aberdeen</t>
   </si>
   <si>
-    <t>Flying instead</t>
+    <t>Found it cheaper elsewhere</t>
   </si>
   <si>
     <t>Judy.Bench@gmail.com</t>
   </si>
   <si>
-    <t>G8793984</t>
-  </si>
-  <si>
-    <t>Tim Trubshaw</t>
-  </si>
-  <si>
-    <t>41 Newdenture Av, Blackpool, BA34  34Y</t>
-  </si>
-  <si>
     <t>Cardiff</t>
   </si>
   <si>
@@ -251,22 +167,13 @@
   </si>
   <si>
     <t>99 - Bot Error</t>
-  </si>
-  <si>
-    <t>john.h.higgins56@hotmail.com</t>
-  </si>
-  <si>
-    <t>mary.quantum34@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@"/>
-  </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,14 +330,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -729,7 +628,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
@@ -764,7 +663,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
@@ -774,40 +672,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="20" fillId="4" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="34"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="20" fillId="4" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="29"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="29" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -841,16 +723,15 @@
     <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8"/>
-    <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="38" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="39" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="40" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2179,416 +2060,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05048FD4-FE6B-4DFE-B6DC-9425F4DD8CDF}">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E3D8F0-9A71-4951-A5CA-EA1EA38135F7}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="B2" s="9">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>44399.549432870372</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <v>44399.555428240739</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11">
-        <v>44399.549432870372</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C4" s="9">
+        <v>44495.444791666669</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="16"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44495.562280092592</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15">
-        <v>4</v>
-      </c>
-      <c r="F3" s="11">
-        <v>44399.555428240739</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="16"/>
+      <c r="B6" s="9">
+        <v>57.7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>44517.329583333332</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44525.528923611113</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="15">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F4" s="11">
-        <v>44495.444791666669</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="16"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>30.3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>44544.481157407405</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>44566.391747685186</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="15">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F5" s="11">
-        <v>44495.562280092592</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>44566.391805555555</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>23.56</v>
+      </c>
+      <c r="C11" s="9">
+        <v>44625.391805555555</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="15">
-        <v>57.7</v>
-      </c>
-      <c r="F6" s="11">
-        <v>44517.329583333332</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1000000</v>
-      </c>
-      <c r="F7" s="11">
-        <v>44525.528923611113</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="15">
-        <v>30.3</v>
-      </c>
-      <c r="F8" s="11">
-        <v>44544.481157407405</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="15">
-        <v>19.5</v>
-      </c>
-      <c r="F9" s="11">
-        <v>44566.391747685186</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="15">
-        <v>18.3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>44566.391805555555</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="15">
-        <v>23.56</v>
-      </c>
-      <c r="F11" s="11">
-        <v>44625.391805555555</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{66AB311F-5747-4F08-904F-8E7203D3558F}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{5A79933E-5DD1-4BFB-9EFD-FC884E18D0C7}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{74989528-AA16-4FE5-9EE2-C59BE675518C}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{F3B2CEA4-FAE5-4B91-B979-7B9DF11DAB78}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{FFA5E904-6A15-4338-9998-58130FC18E44}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{3353CFAC-827F-4373-A2C9-2A613BE0B038}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{897CF6B5-7813-4CE9-8AFA-9C280736626A}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{F3D8C85D-00CB-4512-9371-16BDA966402D}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{DFCF76BF-E8F6-40F6-B9EC-0CD98CEC5F1E}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{0A1F67F9-AFAB-4B74-99AB-B1EFDEA16A5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2603,56 +2381,56 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>72</v>
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <f>COUNTIFS(Tickets!J1:J990, "00")</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <f>COUNTIFS(Tickets!J1:J990, "01")</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <f>COUNTIFS(Tickets!J1:J990, "02")</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>COUNTIFS(Tickets!J1:J990, "03")</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <f>COUNTIFS(Tickets!J1:K990, "98")</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <f>COUNTIFS(Tickets!J1:L990, "99")</f>
-        <v>0</v>
+      <c r="A2" s="2" t="e">
+        <f>COUNTIFS(#REF!, "00")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B2" s="2" t="e">
+        <f>COUNTIFS(#REF!, "01")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="2" t="e">
+        <f>COUNTIFS(#REF!, "02")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="2" t="e">
+        <f>COUNTIFS(#REF!, "03")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="2" t="e">
+        <f>COUNTIFS(#REF!, "98")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="2" t="e">
+        <f>COUNTIFS(#REF!, "99")</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
